--- a/All_prefectures_xlsx/Miyagi_0509.xlsx
+++ b/All_prefectures_xlsx/Miyagi_0509.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clf17015\Desktop\県別コロナ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/github/COVID-19/COVID-19-MRI/All_prefectures_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83656EB-4231-4C56-80E5-3CF4BAFEC60A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03742977-A688-0E4A-9B9E-FB38E0412CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miyagi_0509" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="196">
   <si>
     <t>MunicipalityName</t>
   </si>
@@ -146,70 +146,6 @@
   </si>
   <si>
     <t>StringencyIndexForDisplay</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>0 - 対応なし
-1 - 短縮運用を推奨
-2 - 短縮運用を要請
-3 - 閉鎖を推奨
-4 - 閉鎖を要請</t>
-  </si>
-  <si>
-    <t>0 - 対象限定
-1 - 自治体運営のみ対象
-2 - 域内全体</t>
-  </si>
-  <si>
-    <t>0 - 対象限定
-1 - 基本的対処方針(4/7)同等
-2 - 対処方針以上
-3 - 全体</t>
-  </si>
-  <si>
-    <t>0 - 対応なし
-1 - 短縮運用を推奨
-2 - 短縮運用を要請
-3 - 中止を推奨
-4 - 中止を要請</t>
-  </si>
-  <si>
-    <t>0 - 対象限定 
-1 - 自治体運営のみ対象 
-2 - 域内全体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 -COVID-19 に関する啓発情報なし
-1 - COVID-19 に関する啓発情報キャンペーンあり
-</t>
-  </si>
-  <si>
-    <t>0 - 対象限定 
-1- 全体</t>
-  </si>
-  <si>
-    <t>0 - 対応なし
-1 - 移動制限を推奨 
-2 - 移動制限</t>
-  </si>
-  <si>
-    <t>Cabinet Office
- https://www.kantei.go.jp/jp/content/000060756.pdf
- ??????1?(153??)???????????????????2,715 ??(???? 2,295 ??????? 420 ??)????????????? 2???? 4,308 ????????????
- 4,308 ??-486 ??(S10 investment in healthcare)=3822??'</t>
-  </si>
-  <si>
-    <t>Cabinet Office (in Japanese)
- https://www.kantei.go.jp/jp/content/000060756.pdf
- (1)?????????????????:486 ?? ? ????????????????????:107 ?? ? ????????????????:186 ?? ? PCR???????:10 ?? ? ?????????:133 ?? ? ?????????:28 ?? '</t>
-  </si>
-  <si>
-    <t>Ministry of health, labour and welfare https://www.mhlw.go.jp/stf/newpage_10126.html https://cepi.net/news_cepi/cepi-expands-investment-in-covid-19-vaccine-development/ CEPI expands investment in COVID-19 vaccine development https://cepi.net/about/whoweare/ CEPI has secured $760 million investment, with funding from the Governments of Norway, UK, Germany, Japan, Canada, Ethiopia, Australia, Belgium, Denmark, Finland, the Bill &amp; Melinda Gates Foundation, and Wellcome.</t>
   </si>
   <si>
     <t>宮城</t>
@@ -677,12 +613,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -690,7 +626,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -698,7 +634,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -707,7 +643,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -716,7 +652,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -725,7 +661,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -733,7 +669,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -741,7 +677,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -749,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -757,7 +693,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -766,7 +702,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -775,7 +711,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -783,7 +719,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -792,7 +728,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -800,7 +736,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -809,7 +745,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -818,7 +754,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -826,14 +762,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1264,57 +1200,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1625,14 +1558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1768,1417 +1703,1351 @@
         <v>43</v>
       </c>
       <c r="C2">
+        <v>20200113</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>20200114</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>20200115</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>20200116</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>20200117</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>20200118</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>20200119</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>20200120</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>20200121</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>20200122</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>20200123</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>20200124</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>20200125</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>20200126</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>20200127</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>20200128</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>20200129</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>20200130</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>20200131</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>20200201</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>20200202</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>20200203</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>20200204</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>20200205</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>20200206</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>20200207</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>20200208</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>20200209</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>20200210</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>20200211</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>20200212</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>20200213</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>20200214</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>20200215</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>20200216</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>20200217</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>20200218</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>20200219</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>20200220</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>20200221</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>20200222</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>20200223</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>20200224</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>20200225</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>20200226</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>20200227</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>20200228</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>20200229</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>20200301</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>20200302</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>20200303</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>20200304</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>20200305</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>20200306</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56">
+        <v>20200307</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>20200308</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>20200309</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59">
         <v>20200310</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>20200311</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>20200312</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>20200313</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>20200314</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>20200315</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>20200316</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>20200317</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>20200318</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68">
+        <v>20200319</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69">
+        <v>20200320</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>20200321</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>20200322</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>20200323</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>20200324</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74">
+        <v>20200325</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>20200326</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>20200327</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77">
+        <v>20200328</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78">
+        <v>20200329</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <v>20200330</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="AN79">
+        <v>0.67</v>
+      </c>
+      <c r="AO79">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>20200331</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2">
-        <v>3685314415</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2">
-        <v>-0.1</v>
-      </c>
-      <c r="AF2">
-        <v>468619258</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>61.9</v>
-      </c>
-      <c r="AP2">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>20200113</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4">
-        <v>20200114</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>20200115</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>20200116</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>20200117</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>20200118</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>20200119</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>20200120</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>20200121</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>20200122</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13">
-        <v>20200123</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14">
-        <v>20200124</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15">
-        <v>20200125</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>20200126</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17">
-        <v>20200127</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18">
-        <v>20200128</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>20200129</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>20200130</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>20200131</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22">
-        <v>20200201</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>20200202</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24">
-        <v>20200203</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25">
-        <v>20200204</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
-        <v>20200205</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27">
-        <v>20200206</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>20200207</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>20200208</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>20200209</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>20200210</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32">
-        <v>20200211</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33">
-        <v>20200212</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34">
-        <v>20200213</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
-        <v>20200214</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36">
-        <v>20200215</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37">
-        <v>20200216</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38">
-        <v>20200217</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39">
-        <v>20200218</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40">
-        <v>20200219</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41">
-        <v>20200220</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42">
-        <v>20200221</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43">
-        <v>20200222</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44">
-        <v>20200223</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>20200224</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46">
-        <v>20200225</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47">
-        <v>20200226</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48">
-        <v>20200227</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49">
-        <v>20200228</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>20200229</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51">
-        <v>20200301</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52">
-        <v>20200302</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53">
-        <v>20200303</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>20200304</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>20200305</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56">
-        <v>20200306</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>20200307</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>20200308</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59">
-        <v>20200309</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60">
-        <v>20200310</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61">
-        <v>20200311</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62">
-        <v>20200312</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63">
-        <v>20200313</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64">
-        <v>20200314</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65">
-        <v>20200315</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66">
-        <v>20200316</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67">
-        <v>20200317</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AO67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68">
-        <v>20200318</v>
-      </c>
-      <c r="AN68">
-        <v>0</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69">
-        <v>20200319</v>
-      </c>
-      <c r="AN69">
-        <v>0</v>
-      </c>
-      <c r="AO69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70">
-        <v>20200320</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71">
-        <v>20200321</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72">
-        <v>20200322</v>
-      </c>
-      <c r="AN72">
-        <v>0</v>
-      </c>
-      <c r="AO72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73">
-        <v>20200323</v>
-      </c>
-      <c r="AN73">
-        <v>0</v>
-      </c>
-      <c r="AO73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74">
-        <v>20200324</v>
-      </c>
-      <c r="AN74">
-        <v>0</v>
-      </c>
-      <c r="AO74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75">
-        <v>20200325</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76">
-        <v>20200326</v>
-      </c>
-      <c r="AN76">
-        <v>0</v>
-      </c>
-      <c r="AO76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77">
-        <v>20200327</v>
-      </c>
-      <c r="AN77">
-        <v>0</v>
-      </c>
-      <c r="AO77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78">
-        <v>20200328</v>
-      </c>
-      <c r="AN78">
-        <v>0</v>
-      </c>
-      <c r="AO78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79">
-        <v>20200329</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80">
-        <v>20200330</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>57</v>
       </c>
       <c r="AN80">
         <v>0.67</v>
@@ -3187,15 +3056,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C81">
-        <v>20200331</v>
+        <v>20200401</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -3204,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AN81">
         <v>0.67</v>
@@ -3213,15 +3082,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C82">
-        <v>20200401</v>
+        <v>20200402</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -3230,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AN82">
         <v>0.67</v>
@@ -3239,15 +3108,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C83">
-        <v>20200402</v>
+        <v>20200403</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -3256,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AN83">
         <v>0.67</v>
@@ -3265,15 +3134,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>20200403</v>
+        <v>20200404</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -3282,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AN84">
         <v>0.67</v>
@@ -3291,15 +3160,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>20200404</v>
+        <v>20200405</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -3308,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AN85">
         <v>0.67</v>
@@ -3317,15 +3186,24 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>20200405</v>
+        <v>20200406</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -3334,24 +3212,24 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AN86">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO86">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C87">
-        <v>20200406</v>
+        <v>20200407</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -3360,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>3</v>
@@ -3369,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AN87">
         <v>1.5</v>
@@ -3378,15 +3256,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C88">
-        <v>20200407</v>
+        <v>20200408</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -3395,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -3404,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AN88">
         <v>1.5</v>
@@ -3413,15 +3291,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>20200408</v>
+        <v>20200409</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3430,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -3439,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AN89">
         <v>1.5</v>
@@ -3448,15 +3326,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C90">
-        <v>20200409</v>
+        <v>20200410</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -3465,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J90">
         <v>3</v>
@@ -3474,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AN90">
         <v>1.5</v>
@@ -3483,15 +3361,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C91">
-        <v>20200410</v>
+        <v>20200411</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -3500,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -3509,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AN91">
         <v>1.5</v>
@@ -3518,15 +3396,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C92">
-        <v>20200411</v>
+        <v>20200412</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -3535,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -3544,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AN92">
         <v>1.5</v>
@@ -3553,15 +3431,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C93">
-        <v>20200412</v>
+        <v>20200413</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3570,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J93">
         <v>3</v>
@@ -3579,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AN93">
         <v>1.5</v>
@@ -3588,15 +3466,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C94">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -3605,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J94">
         <v>3</v>
@@ -3614,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN94">
         <v>1.5</v>
@@ -3623,15 +3501,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C95">
-        <v>20200414</v>
+        <v>20200415</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -3640,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -3649,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AN95">
         <v>1.5</v>
@@ -3658,15 +3536,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C96">
-        <v>20200415</v>
+        <v>20200416</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -3675,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -3684,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AN96">
         <v>1.5</v>
@@ -3693,15 +3571,15 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C97">
-        <v>20200416</v>
+        <v>20200417</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -3710,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J97">
         <v>3</v>
@@ -3719,24 +3597,33 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97" t="s">
+        <v>75</v>
       </c>
       <c r="AN97">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO97">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C98">
-        <v>20200417</v>
+        <v>20200418</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -3745,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -3754,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -3763,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="U98" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AN98">
         <v>2.17</v>
@@ -3772,15 +3659,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C99">
-        <v>20200418</v>
+        <v>20200419</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -3789,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -3798,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -3807,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="U99" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AN99">
         <v>2.17</v>
@@ -3816,15 +3703,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C100">
-        <v>20200419</v>
+        <v>20200420</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -3833,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J100">
         <v>3</v>
@@ -3842,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -3851,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="U100" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AN100">
         <v>2.17</v>
@@ -3860,15 +3747,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C101">
-        <v>20200420</v>
+        <v>20200421</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -3877,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -3886,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -3895,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="U101" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AN101">
         <v>2.17</v>
@@ -3904,15 +3791,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C102">
-        <v>20200421</v>
+        <v>20200422</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -3921,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -3930,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -3939,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="U102" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN102">
         <v>2.17</v>
@@ -3948,15 +3835,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>20200422</v>
+        <v>20200423</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -3965,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -3974,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -3983,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="U103" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AN103">
         <v>2.17</v>
@@ -3992,15 +3879,15 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C104">
-        <v>20200423</v>
+        <v>20200424</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -4009,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -4018,7 +3905,16 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s">
+        <v>96</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -4027,24 +3923,33 @@
         <v>1</v>
       </c>
       <c r="U104" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="s">
+        <v>98</v>
       </c>
       <c r="AN104">
-        <v>2.17</v>
+        <v>3.83</v>
       </c>
       <c r="AO104">
-        <v>27.08</v>
-      </c>
-    </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C105">
-        <v>20200424</v>
+        <v>20200425</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -4053,7 +3958,16 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>100</v>
       </c>
       <c r="J105">
         <v>3</v>
@@ -4062,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -4071,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -4080,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="U105" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V105">
         <v>1</v>
@@ -4089,24 +4003,33 @@
         <v>1</v>
       </c>
       <c r="X105" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="Y105">
+        <v>4</v>
+      </c>
+      <c r="Z105">
+        <v>2</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>105</v>
       </c>
       <c r="AN105">
-        <v>3.83</v>
+        <v>5.83</v>
       </c>
       <c r="AO105">
-        <v>47.92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C106">
-        <v>20200425</v>
+        <v>20200426</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -4115,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -4124,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J106">
         <v>3</v>
@@ -4133,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P106">
         <v>1</v>
@@ -4142,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -4151,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="U106" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="V106">
         <v>1</v>
@@ -4160,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="X106" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Y106">
         <v>4</v>
@@ -4169,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="AA106" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AN106">
         <v>5.83</v>
@@ -4178,15 +4101,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C107">
-        <v>20200426</v>
+        <v>20200427</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -4195,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -4204,17 +4127,17 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
+        <v>100</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
         <v>113</v>
       </c>
-      <c r="J107">
-        <v>3</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
-        <v>120</v>
-      </c>
       <c r="P107">
         <v>1</v>
       </c>
@@ -4222,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="R107" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -4231,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="U107" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="V107">
         <v>1</v>
@@ -4240,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="X107" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Y107">
         <v>4</v>
@@ -4249,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="AA107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AN107">
         <v>5.83</v>
@@ -4258,15 +4181,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C108">
-        <v>20200427</v>
+        <v>20200428</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -4275,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -4284,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -4293,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P108">
         <v>1</v>
@@ -4302,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -4311,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="U108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="V108">
         <v>1</v>
@@ -4320,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="X108" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Y108">
         <v>4</v>
@@ -4329,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="AA108" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AN108">
         <v>5.83</v>
@@ -4338,15 +4261,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C109">
-        <v>20200428</v>
+        <v>20200429</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -4355,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -4364,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J109">
         <v>3</v>
@@ -4373,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P109">
         <v>1</v>
@@ -4382,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -4391,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="U109" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="V109">
         <v>1</v>
@@ -4400,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="X109" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Y109">
         <v>4</v>
@@ -4409,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="AA109" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AN109">
         <v>5.83</v>
@@ -4418,15 +4341,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C110">
-        <v>20200429</v>
+        <v>20200430</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4435,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -4444,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -4453,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -4462,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -4471,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="U110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="V110">
         <v>1</v>
@@ -4480,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="X110" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Y110">
         <v>4</v>
@@ -4489,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="AA110" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AN110">
         <v>5.83</v>
@@ -4498,15 +4421,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C111">
-        <v>20200430</v>
+        <v>20200501</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -4515,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -4524,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J111">
         <v>3</v>
@@ -4533,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="P111">
         <v>1</v>
@@ -4542,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="R111" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -4551,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="U111" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="V111">
         <v>1</v>
@@ -4560,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="X111" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y111">
         <v>4</v>
@@ -4569,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="AA111" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AN111">
         <v>5.83</v>
@@ -4578,15 +4501,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C112">
-        <v>20200501</v>
+        <v>20200502</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -4595,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -4604,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -4613,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -4622,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="R112" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -4631,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="U112" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="V112">
         <v>1</v>
@@ -4640,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="X112" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Y112">
         <v>4</v>
@@ -4649,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="AA112" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AN112">
         <v>5.83</v>
@@ -4658,15 +4581,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C113">
-        <v>20200502</v>
+        <v>20200503</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -4675,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -4684,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -4693,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -4702,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -4711,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="U113" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="V113">
         <v>1</v>
@@ -4720,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="X113" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y113">
         <v>4</v>
@@ -4729,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="AA113" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AN113">
         <v>5.83</v>
@@ -4738,15 +4661,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C114">
-        <v>20200503</v>
+        <v>20200504</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -4755,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -4764,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -4773,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P114">
         <v>1</v>
@@ -4782,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="R114" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -4791,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="U114" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="V114">
         <v>1</v>
@@ -4800,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="X114" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y114">
         <v>4</v>
@@ -4809,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="AA114" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AN114">
         <v>5.83</v>
@@ -4818,15 +4741,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C115">
-        <v>20200504</v>
+        <v>20200505</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -4835,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -4844,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J115">
         <v>3</v>
@@ -4853,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -4862,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="R115" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -4871,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="U115" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="V115">
         <v>1</v>
@@ -4880,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="X115" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Y115">
         <v>4</v>
@@ -4889,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="AA115" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AN115">
         <v>5.83</v>
@@ -4898,15 +4821,15 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C116">
-        <v>20200505</v>
+        <v>20200506</v>
       </c>
       <c r="D116">
         <v>4</v>
@@ -4915,16 +4838,16 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G116">
         <v>4</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J116">
         <v>3</v>
@@ -4933,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -4942,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -4951,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="U116" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="V116">
         <v>1</v>
@@ -4960,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="X116" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Y116">
         <v>4</v>
@@ -4969,42 +4892,24 @@
         <v>2</v>
       </c>
       <c r="AA116" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AN116">
-        <v>5.83</v>
+        <v>5.69</v>
       </c>
       <c r="AO116">
-        <v>72.92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>71.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C117">
-        <v>20200506</v>
-      </c>
-      <c r="D117">
-        <v>4</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>179</v>
-      </c>
-      <c r="G117">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-      <c r="I117" t="s">
-        <v>113</v>
+        <v>20200507</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -5013,60 +4918,24 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>180</v>
-      </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="R117" t="s">
-        <v>169</v>
-      </c>
-      <c r="S117">
-        <v>1</v>
-      </c>
-      <c r="T117">
-        <v>1</v>
-      </c>
-      <c r="U117" t="s">
-        <v>181</v>
-      </c>
-      <c r="V117">
-        <v>1</v>
-      </c>
-      <c r="W117">
-        <v>1</v>
-      </c>
-      <c r="X117" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y117">
-        <v>4</v>
-      </c>
-      <c r="Z117">
-        <v>2</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AN117">
-        <v>5.69</v>
+        <v>0.67</v>
       </c>
       <c r="AO117">
-        <v>71.13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C118">
-        <v>20200507</v>
+        <v>20200508</v>
       </c>
       <c r="J118">
         <v>3</v>
@@ -5075,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AN118">
         <v>0.67</v>
@@ -5084,15 +4953,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C119">
-        <v>20200508</v>
+        <v>20200509</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -5101,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AN119">
         <v>0.67</v>
@@ -5110,15 +4979,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C120">
-        <v>20200509</v>
+        <v>20200510</v>
       </c>
       <c r="J120">
         <v>3</v>
@@ -5127,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AN120">
         <v>0.67</v>
@@ -5136,15 +5005,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C121">
-        <v>20200510</v>
+        <v>20200511</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -5153,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN121">
         <v>0.67</v>
@@ -5162,15 +5031,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C122">
-        <v>20200511</v>
+        <v>20200512</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5179,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AN122">
         <v>0.67</v>
@@ -5188,15 +5057,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C123">
-        <v>20200512</v>
+        <v>20200513</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -5205,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="AN123">
         <v>0.67</v>
@@ -5214,15 +5083,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C124">
-        <v>20200513</v>
+        <v>20200514</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -5231,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AN124">
         <v>0.67</v>
@@ -5240,15 +5109,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C125">
-        <v>20200514</v>
+        <v>20200515</v>
       </c>
       <c r="J125">
         <v>3</v>
@@ -5257,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AN125">
         <v>0.67</v>
@@ -5266,15 +5135,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C126">
-        <v>20200515</v>
+        <v>20200516</v>
       </c>
       <c r="J126">
         <v>3</v>
@@ -5283,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AN126">
         <v>0.67</v>
@@ -5292,15 +5161,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C127">
-        <v>20200516</v>
+        <v>20200517</v>
       </c>
       <c r="J127">
         <v>3</v>
@@ -5309,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AN127">
         <v>0.67</v>
@@ -5318,15 +5187,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C128">
-        <v>20200517</v>
+        <v>20200518</v>
       </c>
       <c r="J128">
         <v>3</v>
@@ -5335,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AN128">
         <v>0.67</v>
@@ -5344,15 +5213,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C129">
-        <v>20200518</v>
+        <v>20200519</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -5361,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AN129">
         <v>0.67</v>
@@ -5370,15 +5239,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C130">
-        <v>20200519</v>
+        <v>20200520</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -5387,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AN130">
         <v>0.67</v>
@@ -5396,15 +5265,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C131">
-        <v>20200520</v>
+        <v>20200521</v>
       </c>
       <c r="J131">
         <v>3</v>
@@ -5413,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AN131">
         <v>0.67</v>
@@ -5422,15 +5291,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C132">
-        <v>20200521</v>
+        <v>20200522</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -5439,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AN132">
         <v>0.67</v>
@@ -5448,15 +5317,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C133">
-        <v>20200522</v>
+        <v>20200523</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -5465,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AN133">
         <v>0.67</v>
@@ -5474,15 +5343,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C134">
-        <v>20200523</v>
+        <v>20200524</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -5491,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AN134">
         <v>0.67</v>
@@ -5500,15 +5369,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C135">
-        <v>20200524</v>
+        <v>20200525</v>
       </c>
       <c r="J135">
         <v>3</v>
@@ -5517,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AN135">
         <v>0.67</v>
@@ -5526,15 +5395,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C136">
-        <v>20200525</v>
+        <v>20200526</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -5543,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AN136">
         <v>0.67</v>
@@ -5552,15 +5421,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C137">
-        <v>20200526</v>
+        <v>20200527</v>
       </c>
       <c r="J137">
         <v>3</v>
@@ -5569,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AN137">
         <v>0.67</v>
@@ -5578,15 +5447,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C138">
-        <v>20200527</v>
+        <v>20200528</v>
       </c>
       <c r="J138">
         <v>3</v>
@@ -5595,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AN138">
         <v>0.67</v>
@@ -5604,15 +5473,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C139">
-        <v>20200528</v>
+        <v>20200529</v>
       </c>
       <c r="J139">
         <v>3</v>
@@ -5621,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AN139">
         <v>0.67</v>
@@ -5630,15 +5499,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C140">
-        <v>20200529</v>
+        <v>20200530</v>
       </c>
       <c r="J140">
         <v>3</v>
@@ -5647,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AN140">
         <v>0.67</v>
@@ -5656,15 +5525,15 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C141">
-        <v>20200530</v>
+        <v>20200531</v>
       </c>
       <c r="J141">
         <v>3</v>
@@ -5673,38 +5542,12 @@
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AN141">
         <v>0.67</v>
       </c>
       <c r="AO141">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="s">
-        <v>55</v>
-      </c>
-      <c r="B142" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142">
-        <v>20200531</v>
-      </c>
-      <c r="J142">
-        <v>3</v>
-      </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN142">
-        <v>0.67</v>
-      </c>
-      <c r="AO142">
         <v>8.33</v>
       </c>
     </row>
